--- a/2_description/3_LIHK/model10_results.xlsx
+++ b/2_description/3_LIHK/model10_results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,130 +360,3643 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>term</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>estimate</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std.error</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>statistic</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>p.value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>cyear</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>int_10</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>eduy_10</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>exp_10</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>exp2_10</t>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>urban</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>9.681911205068801</v>
+      </c>
+      <c r="C2">
+        <v>0.06162861121008475</v>
+      </c>
+      <c r="D2">
+        <v>157.1009148991577</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F2">
         <v>2010</v>
       </c>
-      <c r="B2">
-        <v>8.499511040560568</v>
-      </c>
-      <c r="C2">
-        <v>0.1162933853259458</v>
-      </c>
-      <c r="D2">
-        <v>0.0489176471263309</v>
-      </c>
-      <c r="E2">
-        <v>-0.001523061286225743</v>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0.0534174748328183</v>
+      </c>
+      <c r="C3">
+        <v>0.007684256106702888</v>
+      </c>
+      <c r="D3">
+        <v>6.951547956115473</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F3">
+        <v>2010</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>st_cog</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>0.1434855544180552</v>
+      </c>
+      <c r="C4">
+        <v>0.03758805111678321</v>
+      </c>
+      <c r="D4">
+        <v>3.817318274157299</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F4">
+        <v>2010</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>0.01543026916130781</v>
+      </c>
+      <c r="C5">
+        <v>0.005756063580594948</v>
+      </c>
+      <c r="D5">
+        <v>2.680698179451475</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+      <c r="F5">
+        <v>2010</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>-0.0004889529928155762</v>
+      </c>
+      <c r="C6">
+        <v>0.0001657335239920058</v>
+      </c>
+      <c r="D6">
+        <v>-2.950235903022016</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="F6">
+        <v>2010</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>9.048620352927079</v>
+      </c>
+      <c r="C7">
+        <v>0.07376317248337352</v>
+      </c>
+      <c r="D7">
+        <v>122.6712470232577</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F7">
+        <v>2010</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0.09430993082366615</v>
+      </c>
+      <c r="C8">
+        <v>0.009110977721961681</v>
+      </c>
+      <c r="D8">
+        <v>10.35124151344762</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F8">
+        <v>2010</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>st_cog</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>-0.004556262972011675</v>
+      </c>
+      <c r="C9">
+        <v>0.04509808889421441</v>
+      </c>
+      <c r="D9">
+        <v>-0.1010300676531815</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.920</t>
+        </is>
+      </c>
+      <c r="F9">
+        <v>2010</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>0.01337417917434339</v>
+      </c>
+      <c r="C10">
+        <v>0.007547193017684562</v>
+      </c>
+      <c r="D10">
+        <v>1.77207329175298</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.077</t>
+        </is>
+      </c>
+      <c r="F10">
+        <v>2010</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>-0.0005423077891105385</v>
+      </c>
+      <c r="C11">
+        <v>0.0002494405836530419</v>
+      </c>
+      <c r="D11">
+        <v>-2.174096055936346</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.030</t>
+        </is>
+      </c>
+      <c r="F11">
+        <v>2010</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>8.936108163830353</v>
+      </c>
+      <c r="C12">
+        <v>0.05702028793531185</v>
+      </c>
+      <c r="D12">
+        <v>156.7180469865069</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F12">
+        <v>2010</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>0.02900877215717407</v>
+      </c>
+      <c r="C13">
+        <v>0.008047521301309339</v>
+      </c>
+      <c r="D13">
+        <v>3.604684109684098</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F13">
+        <v>2010</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>st_cog</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>0.2763369746064439</v>
+      </c>
+      <c r="C14">
+        <v>0.03608566488129045</v>
+      </c>
+      <c r="D14">
+        <v>7.657804713187312</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F14">
+        <v>2010</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>0.04008047534921459</v>
+      </c>
+      <c r="C15">
+        <v>0.00976222786384154</v>
+      </c>
+      <c r="D15">
+        <v>4.105668901426615</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F15">
+        <v>2010</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>-0.001356485838861085</v>
+      </c>
+      <c r="C16">
+        <v>0.0002874332077841762</v>
+      </c>
+      <c r="D16">
+        <v>-4.719308006608702</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F16">
+        <v>2010</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>8.575521148184791</v>
+      </c>
+      <c r="C17">
+        <v>0.05191047935251576</v>
+      </c>
+      <c r="D17">
+        <v>165.1982654590762</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F17">
+        <v>2010</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>0.03499299045203099</v>
+      </c>
+      <c r="C18">
+        <v>0.007408599833063379</v>
+      </c>
+      <c r="D18">
+        <v>4.723293367238294</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F18">
+        <v>2010</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>st_cog</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>0.1930761021015192</v>
+      </c>
+      <c r="C19">
+        <v>0.03331590565394327</v>
+      </c>
+      <c r="D19">
+        <v>5.795313028768489</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F19">
+        <v>2010</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>0.0768590082117355</v>
+      </c>
+      <c r="C20">
+        <v>0.01327180807428984</v>
+      </c>
+      <c r="D20">
+        <v>5.791148258135743</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F20">
+        <v>2010</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>-0.002686492868606119</v>
+      </c>
+      <c r="C21">
+        <v>0.0004408496757278049</v>
+      </c>
+      <c r="D21">
+        <v>-6.093897798996791</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F21">
+        <v>2010</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>9.656982547440832</v>
+      </c>
+      <c r="C22">
+        <v>0.06082038317037038</v>
+      </c>
+      <c r="D22">
+        <v>158.7787193051652</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F22">
         <v>2012</v>
       </c>
-      <c r="B3">
-        <v>9.090313767052683</v>
-      </c>
-      <c r="C3">
-        <v>0.06829279589515297</v>
-      </c>
-      <c r="D3">
-        <v>0.02494185309027106</v>
-      </c>
-      <c r="E3">
-        <v>-0.0008136712356311773</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>0.03875683175009707</v>
+      </c>
+      <c r="C23">
+        <v>0.006767558179586479</v>
+      </c>
+      <c r="D23">
+        <v>5.726856086291562</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F23">
+        <v>2012</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>st_cog</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>0.100311767504422</v>
+      </c>
+      <c r="C24">
+        <v>0.02084917871955069</v>
+      </c>
+      <c r="D24">
+        <v>4.811305464534086</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F24">
+        <v>2012</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>0.0226678206925108</v>
+      </c>
+      <c r="C25">
+        <v>0.006432084133788436</v>
+      </c>
+      <c r="D25">
+        <v>3.524179755895026</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F25">
+        <v>2012</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B26">
+        <v>-0.0005976713511088626</v>
+      </c>
+      <c r="C26">
+        <v>0.000184491600006114</v>
+      </c>
+      <c r="D26">
+        <v>-3.239558609113131</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="F26">
+        <v>2012</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>8.868756267215106</v>
+      </c>
+      <c r="C27">
+        <v>0.07832733603847905</v>
+      </c>
+      <c r="D27">
+        <v>113.2268338968945</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F27">
+        <v>2012</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>0.07493312030969905</v>
+      </c>
+      <c r="C28">
+        <v>0.008218196726699708</v>
+      </c>
+      <c r="D28">
+        <v>9.117951638496606</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F28">
+        <v>2012</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>st_cog</t>
+        </is>
+      </c>
+      <c r="B29">
+        <v>0.05179898851757086</v>
+      </c>
+      <c r="C29">
+        <v>0.02834437287771879</v>
+      </c>
+      <c r="D29">
+        <v>1.827487548976238</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.068</t>
+        </is>
+      </c>
+      <c r="F29">
+        <v>2012</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>0.02498034911968323</v>
+      </c>
+      <c r="C30">
+        <v>0.009028615804104329</v>
+      </c>
+      <c r="D30">
+        <v>2.766797221377765</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+      <c r="F30">
+        <v>2012</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>-0.0006364137595028282</v>
+      </c>
+      <c r="C31">
+        <v>0.0003008984495301477</v>
+      </c>
+      <c r="D31">
+        <v>-2.115044994404548</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.035</t>
+        </is>
+      </c>
+      <c r="F31">
+        <v>2012</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>9.376682941806969</v>
+      </c>
+      <c r="C32">
+        <v>0.05903067795242175</v>
+      </c>
+      <c r="D32">
+        <v>158.8442360320595</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F32">
+        <v>2012</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>0.04432682094451278</v>
+      </c>
+      <c r="C33">
+        <v>0.007380863002811911</v>
+      </c>
+      <c r="D33">
+        <v>6.005642013356087</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F33">
+        <v>2012</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>st_cog</t>
+        </is>
+      </c>
+      <c r="B34">
+        <v>0.1320721998454452</v>
+      </c>
+      <c r="C34">
+        <v>0.02549638077544104</v>
+      </c>
+      <c r="D34">
+        <v>5.18003715933916</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F34">
+        <v>2012</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>0.03285359680241831</v>
+      </c>
+      <c r="C35">
+        <v>0.009889958541521061</v>
+      </c>
+      <c r="D35">
+        <v>3.321914512026405</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="F35">
+        <v>2012</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B36">
+        <v>-0.001200531112707091</v>
+      </c>
+      <c r="C36">
+        <v>0.0002873893583193475</v>
+      </c>
+      <c r="D36">
+        <v>-4.177368012955649</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F36">
+        <v>2012</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>8.416243281210596</v>
+      </c>
+      <c r="C37">
+        <v>0.09049375314559341</v>
+      </c>
+      <c r="D37">
+        <v>93.00358299505919</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F37">
+        <v>2012</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>0.0914242055170881</v>
+      </c>
+      <c r="C38">
+        <v>0.01100335279016281</v>
+      </c>
+      <c r="D38">
+        <v>8.308758908359543</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F38">
+        <v>2012</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>st_cog</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>-0.06451965480000071</v>
+      </c>
+      <c r="C39">
+        <v>0.04239301633774228</v>
+      </c>
+      <c r="D39">
+        <v>-1.521940649044102</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.128</t>
+        </is>
+      </c>
+      <c r="F39">
+        <v>2012</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>0.05462688524725255</v>
+      </c>
+      <c r="C40">
+        <v>0.01896996128517728</v>
+      </c>
+      <c r="D40">
+        <v>2.879651909987651</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+      <c r="F40">
+        <v>2012</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>-0.002359573872930217</v>
+      </c>
+      <c r="C41">
+        <v>0.0006471417306995529</v>
+      </c>
+      <c r="D41">
+        <v>-3.646146989129482</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F41">
+        <v>2012</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>9.874047858775647</v>
+      </c>
+      <c r="C42">
+        <v>0.05736341451146223</v>
+      </c>
+      <c r="D42">
+        <v>172.1314524748634</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F42">
         <v>2014</v>
       </c>
-      <c r="B4">
-        <v>9.620897522517973</v>
-      </c>
-      <c r="C4">
-        <v>0.03227647644342346</v>
-      </c>
-      <c r="D4">
-        <v>0.02803280417484694</v>
-      </c>
-      <c r="E4">
-        <v>-0.0007816542904208121</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>0.02388541775232504</v>
+      </c>
+      <c r="C43">
+        <v>0.006860478012477506</v>
+      </c>
+      <c r="D43">
+        <v>3.481596720940348</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="F43">
+        <v>2014</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>st_cog</t>
+        </is>
+      </c>
+      <c r="B44">
+        <v>0.08594889972232371</v>
+      </c>
+      <c r="C44">
+        <v>0.03195175014020829</v>
+      </c>
+      <c r="D44">
+        <v>2.689959058429324</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+      <c r="F44">
+        <v>2014</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B45">
+        <v>0.0222498821141567</v>
+      </c>
+      <c r="C45">
+        <v>0.005235873082886678</v>
+      </c>
+      <c r="D45">
+        <v>4.24950753426012</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F45">
+        <v>2014</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B46">
+        <v>-0.000680002866687045</v>
+      </c>
+      <c r="C46">
+        <v>0.0001469500646427225</v>
+      </c>
+      <c r="D46">
+        <v>-4.627441766292011</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F46">
+        <v>2014</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B47">
+        <v>9.289654417979056</v>
+      </c>
+      <c r="C47">
+        <v>0.06814208181479972</v>
+      </c>
+      <c r="D47">
+        <v>136.3277165970213</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F47">
+        <v>2014</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B48">
+        <v>0.04206296771374139</v>
+      </c>
+      <c r="C48">
+        <v>0.008284304463035836</v>
+      </c>
+      <c r="D48">
+        <v>5.077428998586942</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F48">
+        <v>2014</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>st_cog</t>
+        </is>
+      </c>
+      <c r="B49">
+        <v>-0.0148618276135606</v>
+      </c>
+      <c r="C49">
+        <v>0.04194271062598559</v>
+      </c>
+      <c r="D49">
+        <v>-0.3543363648116953</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0.723</t>
+        </is>
+      </c>
+      <c r="F49">
+        <v>2014</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B50">
+        <v>0.0451955176882123</v>
+      </c>
+      <c r="C50">
+        <v>0.007404780873393848</v>
+      </c>
+      <c r="D50">
+        <v>6.103559100662185</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F50">
+        <v>2014</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B51">
+        <v>-0.001320941910697219</v>
+      </c>
+      <c r="C51">
+        <v>0.0002395662861302411</v>
+      </c>
+      <c r="D51">
+        <v>-5.513889003476407</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F51">
+        <v>2014</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B52">
+        <v>9.860175048851868</v>
+      </c>
+      <c r="C52">
+        <v>0.06091401993942856</v>
+      </c>
+      <c r="D52">
+        <v>161.8703716920438</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F52">
+        <v>2014</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B53">
+        <v>0.01692872033765223</v>
+      </c>
+      <c r="C53">
+        <v>0.007815983360992144</v>
+      </c>
+      <c r="D53">
+        <v>2.165910488261753</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0.030</t>
+        </is>
+      </c>
+      <c r="F53">
+        <v>2014</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>st_cog</t>
+        </is>
+      </c>
+      <c r="B54">
+        <v>0.006452341581050316</v>
+      </c>
+      <c r="C54">
+        <v>0.03300709693345947</v>
+      </c>
+      <c r="D54">
+        <v>0.195483462058414</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0.845</t>
+        </is>
+      </c>
+      <c r="F54">
+        <v>2014</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>0.02197510480894718</v>
+      </c>
+      <c r="C55">
+        <v>0.008322033561586393</v>
+      </c>
+      <c r="D55">
+        <v>2.640593149056967</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0.008</t>
+        </is>
+      </c>
+      <c r="F55">
+        <v>2014</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B56">
+        <v>-0.000728617749111508</v>
+      </c>
+      <c r="C56">
+        <v>0.000233627506915781</v>
+      </c>
+      <c r="D56">
+        <v>-3.118715594453367</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="F56">
+        <v>2014</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B57">
+        <v>9.285948119288344</v>
+      </c>
+      <c r="C57">
+        <v>0.08611281747836576</v>
+      </c>
+      <c r="D57">
+        <v>107.8346800303133</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F57">
+        <v>2014</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B58">
+        <v>0.03381699924110898</v>
+      </c>
+      <c r="C58">
+        <v>0.01126616525184257</v>
+      </c>
+      <c r="D58">
+        <v>3.001642394299004</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="F58">
+        <v>2014</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>st_cog</t>
+        </is>
+      </c>
+      <c r="B59">
+        <v>-0.07216873278291353</v>
+      </c>
+      <c r="C59">
+        <v>0.05104969284423561</v>
+      </c>
+      <c r="D59">
+        <v>-1.413695729827738</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0.158</t>
+        </is>
+      </c>
+      <c r="F59">
+        <v>2014</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>0.04348528497577793</v>
+      </c>
+      <c r="C60">
+        <v>0.01356082307345333</v>
+      </c>
+      <c r="D60">
+        <v>3.206684781612167</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="F60">
+        <v>2014</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B61">
+        <v>-0.001559126572295557</v>
+      </c>
+      <c r="C61">
+        <v>0.0004604454228297424</v>
+      </c>
+      <c r="D61">
+        <v>-3.386126769843188</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="F61">
+        <v>2014</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B62">
+        <v>9.736179008823099</v>
+      </c>
+      <c r="C62">
+        <v>0.06829845038103227</v>
+      </c>
+      <c r="D62">
+        <v>142.5534394192787</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F62">
         <v>2016</v>
       </c>
-      <c r="B5">
-        <v>9.741013724147775</v>
-      </c>
-      <c r="C5">
-        <v>0.04113917974831538</v>
-      </c>
-      <c r="D5">
-        <v>0.02812207902066155</v>
-      </c>
-      <c r="E5">
-        <v>-0.0007887003747586608</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B63">
+        <v>0.03933238859510766</v>
+      </c>
+      <c r="C63">
+        <v>0.006718868006052975</v>
+      </c>
+      <c r="D63">
+        <v>5.85402013548613</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F63">
+        <v>2016</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>st_cog</t>
+        </is>
+      </c>
+      <c r="B64">
+        <v>0.3714792397200922</v>
+      </c>
+      <c r="C64">
+        <v>0.08907201241557601</v>
+      </c>
+      <c r="D64">
+        <v>4.170549532292051</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F64">
+        <v>2016</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B65">
+        <v>0.01384239561002713</v>
+      </c>
+      <c r="C65">
+        <v>0.006063989552449971</v>
+      </c>
+      <c r="D65">
+        <v>2.282720887016458</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0.023</t>
+        </is>
+      </c>
+      <c r="F65">
+        <v>2016</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B66">
+        <v>-0.000448305016785564</v>
+      </c>
+      <c r="C66">
+        <v>0.0001656000966210221</v>
+      </c>
+      <c r="D66">
+        <v>-2.707154318946538</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+      <c r="F66">
+        <v>2016</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B67">
+        <v>9.536458699021475</v>
+      </c>
+      <c r="C67">
+        <v>0.07677237927048597</v>
+      </c>
+      <c r="D67">
+        <v>124.2173134353754</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F67">
+        <v>2016</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B68">
+        <v>0.03389268532172081</v>
+      </c>
+      <c r="C68">
+        <v>0.007089070196050815</v>
+      </c>
+      <c r="D68">
+        <v>4.780977530819454</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F68">
+        <v>2016</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>st_cog</t>
+        </is>
+      </c>
+      <c r="B69">
+        <v>0.1336000072493611</v>
+      </c>
+      <c r="C69">
+        <v>0.1114601142344058</v>
+      </c>
+      <c r="D69">
+        <v>1.198635118643375</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0.231</t>
+        </is>
+      </c>
+      <c r="F69">
+        <v>2016</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B70">
+        <v>0.03294776201011838</v>
+      </c>
+      <c r="C70">
+        <v>0.007605988506833593</v>
+      </c>
+      <c r="D70">
+        <v>4.331818537526909</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F70">
+        <v>2016</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>-0.0008636140321069056</v>
+      </c>
+      <c r="C71">
+        <v>0.0002402258383178041</v>
+      </c>
+      <c r="D71">
+        <v>-3.59500892224756</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F71">
+        <v>2016</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B72">
+        <v>9.692074583323388</v>
+      </c>
+      <c r="C72">
+        <v>0.08086569849070471</v>
+      </c>
+      <c r="D72">
+        <v>119.8539648357513</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F72">
+        <v>2016</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B73">
+        <v>0.02356637234648387</v>
+      </c>
+      <c r="C73">
+        <v>0.008533572424507719</v>
+      </c>
+      <c r="D73">
+        <v>2.761606883279409</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+      <c r="F73">
+        <v>2016</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>st_cog</t>
+        </is>
+      </c>
+      <c r="B74">
+        <v>0.3028719632843859</v>
+      </c>
+      <c r="C74">
+        <v>0.116058903267952</v>
+      </c>
+      <c r="D74">
+        <v>2.609640059971337</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0.009</t>
+        </is>
+      </c>
+      <c r="F74">
+        <v>2016</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B75">
+        <v>0.034268345860595</v>
+      </c>
+      <c r="C75">
+        <v>0.009255193133300619</v>
+      </c>
+      <c r="D75">
+        <v>3.702607321860836</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F75">
+        <v>2016</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B76">
+        <v>-0.0009554351047946706</v>
+      </c>
+      <c r="C76">
+        <v>0.0002497327335276774</v>
+      </c>
+      <c r="D76">
+        <v>-3.825830484047385</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F76">
+        <v>2016</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B77">
+        <v>9.515857613880121</v>
+      </c>
+      <c r="C77">
+        <v>0.1001334660316446</v>
+      </c>
+      <c r="D77">
+        <v>95.03174104522536</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F77">
+        <v>2016</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B78">
+        <v>0.03344107296239476</v>
+      </c>
+      <c r="C78">
+        <v>0.009446305824470685</v>
+      </c>
+      <c r="D78">
+        <v>3.540121777104183</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F78">
+        <v>2016</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>st_cog</t>
+        </is>
+      </c>
+      <c r="B79">
+        <v>-0.2055553700334746</v>
+      </c>
+      <c r="C79">
+        <v>0.1740386879065582</v>
+      </c>
+      <c r="D79">
+        <v>-1.181090092703053</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0.238</t>
+        </is>
+      </c>
+      <c r="F79">
+        <v>2016</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B80">
+        <v>0.05728979186929997</v>
+      </c>
+      <c r="C80">
+        <v>0.01505898387879258</v>
+      </c>
+      <c r="D80">
+        <v>3.804359731733336</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F80">
+        <v>2016</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B81">
+        <v>-0.002091049309957099</v>
+      </c>
+      <c r="C81">
+        <v>0.0005458398469849245</v>
+      </c>
+      <c r="D81">
+        <v>-3.830884318005555</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F81">
+        <v>2016</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B82">
+        <v>9.865199845864483</v>
+      </c>
+      <c r="C82">
+        <v>0.05823922090544131</v>
+      </c>
+      <c r="D82">
+        <v>169.3909996131623</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F82">
         <v>2018</v>
       </c>
-      <c r="B6">
-        <v>9.699080747521116</v>
-      </c>
-      <c r="C6">
-        <v>0.05288109833949315</v>
-      </c>
-      <c r="D6">
-        <v>0.03146378149059472</v>
-      </c>
-      <c r="E6">
-        <v>-0.0008537318515882129</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B83">
+        <v>0.05484853796414959</v>
+      </c>
+      <c r="C83">
+        <v>0.007626554883685839</v>
+      </c>
+      <c r="D83">
+        <v>7.191784337837458</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F83">
+        <v>2018</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>st_cog</t>
+        </is>
+      </c>
+      <c r="B84">
+        <v>0.02658170319122245</v>
+      </c>
+      <c r="C84">
+        <v>0.05161326101140803</v>
+      </c>
+      <c r="D84">
+        <v>0.5150169291831244</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0.607</t>
+        </is>
+      </c>
+      <c r="F84">
+        <v>2018</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B85">
+        <v>0.01991971781621154</v>
+      </c>
+      <c r="C85">
+        <v>0.005958519478971494</v>
+      </c>
+      <c r="D85">
+        <v>3.343064982251245</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+      <c r="F85">
+        <v>2018</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B86">
+        <v>-0.0005786221183282779</v>
+      </c>
+      <c r="C86">
+        <v>0.0001613712941521117</v>
+      </c>
+      <c r="D86">
+        <v>-3.585657048662308</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F86">
+        <v>2018</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B87">
+        <v>9.371956190252634</v>
+      </c>
+      <c r="C87">
+        <v>0.06307435596501357</v>
+      </c>
+      <c r="D87">
+        <v>148.5858404238186</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F87">
+        <v>2018</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B88">
+        <v>0.06002005476888053</v>
+      </c>
+      <c r="C88">
+        <v>0.008900690002243548</v>
+      </c>
+      <c r="D88">
+        <v>6.743303581379826</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F88">
+        <v>2018</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>st_cog</t>
+        </is>
+      </c>
+      <c r="B89">
+        <v>0.04292444461798389</v>
+      </c>
+      <c r="C89">
+        <v>0.06668889871032517</v>
+      </c>
+      <c r="D89">
+        <v>0.6436520237713578</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0.520</t>
+        </is>
+      </c>
+      <c r="F89">
+        <v>2018</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B90">
+        <v>0.04042941708921967</v>
+      </c>
+      <c r="C90">
+        <v>0.007798602592157783</v>
+      </c>
+      <c r="D90">
+        <v>5.1841873735014</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F90">
+        <v>2018</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B91">
+        <v>-0.001181946851337447</v>
+      </c>
+      <c r="C91">
+        <v>0.000254560420839362</v>
+      </c>
+      <c r="D91">
+        <v>-4.643089634438119</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F91">
+        <v>2018</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B92">
+        <v>9.92208772943518</v>
+      </c>
+      <c r="C92">
+        <v>0.06044503685537825</v>
+      </c>
+      <c r="D92">
+        <v>164.150577874159</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F92">
+        <v>2018</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B93">
+        <v>0.01950771838557958</v>
+      </c>
+      <c r="C93">
+        <v>0.009136677358072982</v>
+      </c>
+      <c r="D93">
+        <v>2.135099842213752</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0.033</t>
+        </is>
+      </c>
+      <c r="F93">
+        <v>2018</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>st_cog</t>
+        </is>
+      </c>
+      <c r="B94">
+        <v>0.1305193372660919</v>
+      </c>
+      <c r="C94">
+        <v>0.05604619157000924</v>
+      </c>
+      <c r="D94">
+        <v>2.328781556960131</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0.020</t>
+        </is>
+      </c>
+      <c r="F94">
+        <v>2018</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B95">
+        <v>0.0351147623160491</v>
+      </c>
+      <c r="C95">
+        <v>0.00834345506410876</v>
+      </c>
+      <c r="D95">
+        <v>4.208659607589081</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F95">
+        <v>2018</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B96">
+        <v>-0.001050159714678812</v>
+      </c>
+      <c r="C96">
+        <v>0.0002301116487691407</v>
+      </c>
+      <c r="D96">
+        <v>-4.563696450379982</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F96">
+        <v>2018</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B97">
+        <v>9.285661418059364</v>
+      </c>
+      <c r="C97">
+        <v>0.07293090603121934</v>
+      </c>
+      <c r="D97">
+        <v>127.32135007461</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F97">
+        <v>2018</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B98">
+        <v>0.07307987880611591</v>
+      </c>
+      <c r="C98">
+        <v>0.01311221228900237</v>
+      </c>
+      <c r="D98">
+        <v>5.573420960199853</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F98">
+        <v>2018</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>st_cog</t>
+        </is>
+      </c>
+      <c r="B99">
+        <v>-0.2746542599766465</v>
+      </c>
+      <c r="C99">
+        <v>0.08868614598340628</v>
+      </c>
+      <c r="D99">
+        <v>-3.096924067802382</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="F99">
+        <v>2018</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B100">
+        <v>0.04625583725151396</v>
+      </c>
+      <c r="C100">
+        <v>0.01514531315091251</v>
+      </c>
+      <c r="D100">
+        <v>3.054135414078712</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="F100">
+        <v>2018</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B101">
+        <v>-0.001651066128935268</v>
+      </c>
+      <c r="C101">
+        <v>0.000552583193059923</v>
+      </c>
+      <c r="D101">
+        <v>-2.987905078676947</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="F101">
+        <v>2018</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B102">
+        <v>8.795122264531598</v>
+      </c>
+      <c r="C102">
+        <v>0.8441691666551975</v>
+      </c>
+      <c r="D102">
+        <v>10.41867271625189</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F102">
         <v>2020</v>
       </c>
-      <c r="B7">
-        <v>9.745822808076428</v>
-      </c>
-      <c r="C7">
-        <v>0.05750978403401985</v>
-      </c>
-      <c r="D7">
-        <v>0.03238611597680709</v>
-      </c>
-      <c r="E7">
-        <v>-0.0008280436001954357</v>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B103">
+        <v>0.1109707171123835</v>
+      </c>
+      <c r="C103">
+        <v>0.02062229195032096</v>
+      </c>
+      <c r="D103">
+        <v>5.381104941182661</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F103">
+        <v>2020</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>st_cog</t>
+        </is>
+      </c>
+      <c r="B104">
+        <v>0.2522392996782875</v>
+      </c>
+      <c r="C104">
+        <v>0.2928550770549727</v>
+      </c>
+      <c r="D104">
+        <v>0.8613110013829087</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0.391</t>
+        </is>
+      </c>
+      <c r="F104">
+        <v>2020</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B105">
+        <v>-0.04950073288800145</v>
+      </c>
+      <c r="C105">
+        <v>0.02360150462406159</v>
+      </c>
+      <c r="D105">
+        <v>-2.097354964290529</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0.038</t>
+        </is>
+      </c>
+      <c r="F105">
+        <v>2020</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B106">
+        <v>0.001187981692036812</v>
+      </c>
+      <c r="C106">
+        <v>0.0006212257939801662</v>
+      </c>
+      <c r="D106">
+        <v>1.912318682753763</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0.058</t>
+        </is>
+      </c>
+      <c r="F106">
+        <v>2020</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B107">
+        <v>7.119060741952103</v>
+      </c>
+      <c r="C107">
+        <v>1.00650404170827</v>
+      </c>
+      <c r="D107">
+        <v>7.073057282382504</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F107">
+        <v>2020</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B108">
+        <v>0.06004429113224478</v>
+      </c>
+      <c r="C108">
+        <v>0.02562668138955041</v>
+      </c>
+      <c r="D108">
+        <v>2.343038110144397</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0.022</t>
+        </is>
+      </c>
+      <c r="F108">
+        <v>2020</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>st_cog</t>
+        </is>
+      </c>
+      <c r="B109">
+        <v>0.80733998454726</v>
+      </c>
+      <c r="C109">
+        <v>0.3640346497227105</v>
+      </c>
+      <c r="D109">
+        <v>2.217755878903891</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0.029</t>
+        </is>
+      </c>
+      <c r="F109">
+        <v>2020</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B110">
+        <v>0.0439856576607935</v>
+      </c>
+      <c r="C110">
+        <v>0.03123611722966868</v>
+      </c>
+      <c r="D110">
+        <v>1.408166621266713</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0.163</t>
+        </is>
+      </c>
+      <c r="F110">
+        <v>2020</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B111">
+        <v>-0.001284909982240254</v>
+      </c>
+      <c r="C111">
+        <v>0.001047898887430028</v>
+      </c>
+      <c r="D111">
+        <v>-1.226177446749176</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0.224</t>
+        </is>
+      </c>
+      <c r="F111">
+        <v>2020</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B112">
+        <v>9.340050503698524</v>
+      </c>
+      <c r="C112">
+        <v>0.9164727640127986</v>
+      </c>
+      <c r="D112">
+        <v>10.19130177180922</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F112">
+        <v>2020</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B113">
+        <v>-0.009602160525659898</v>
+      </c>
+      <c r="C113">
+        <v>0.03415648453618578</v>
+      </c>
+      <c r="D113">
+        <v>-0.2811226230113715</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0.779</t>
+        </is>
+      </c>
+      <c r="F113">
+        <v>2020</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>st_cog</t>
+        </is>
+      </c>
+      <c r="B114">
+        <v>0.3171060409559508</v>
+      </c>
+      <c r="C114">
+        <v>0.3450944474240396</v>
+      </c>
+      <c r="D114">
+        <v>0.9188963871281949</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0.360</t>
+        </is>
+      </c>
+      <c r="F114">
+        <v>2020</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B115">
+        <v>0.01106267356694448</v>
+      </c>
+      <c r="C115">
+        <v>0.03577778152004127</v>
+      </c>
+      <c r="D115">
+        <v>0.3092051294669464</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0.758</t>
+        </is>
+      </c>
+      <c r="F115">
+        <v>2020</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B116">
+        <v>0.0001779080812387571</v>
+      </c>
+      <c r="C116">
+        <v>0.001027744731292853</v>
+      </c>
+      <c r="D116">
+        <v>0.1731053206324468</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>0.863</t>
+        </is>
+      </c>
+      <c r="F116">
+        <v>2020</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B117">
+        <v>9.036757884449015</v>
+      </c>
+      <c r="C117">
+        <v>1.229030765544761</v>
+      </c>
+      <c r="D117">
+        <v>7.352751564720612</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F117">
+        <v>2020</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>eduy</t>
+        </is>
+      </c>
+      <c r="B118">
+        <v>0.05698555216884761</v>
+      </c>
+      <c r="C118">
+        <v>0.02844924212950381</v>
+      </c>
+      <c r="D118">
+        <v>2.003060465000918</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0.049</t>
+        </is>
+      </c>
+      <c r="F118">
+        <v>2020</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>st_cog</t>
+        </is>
+      </c>
+      <c r="B119">
+        <v>0.03985627358768395</v>
+      </c>
+      <c r="C119">
+        <v>0.4611952555452592</v>
+      </c>
+      <c r="D119">
+        <v>0.08641952211881043</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>0.931</t>
+        </is>
+      </c>
+      <c r="F119">
+        <v>2020</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="B120">
+        <v>-0.007471251552359263</v>
+      </c>
+      <c r="C120">
+        <v>0.04248174842032919</v>
+      </c>
+      <c r="D120">
+        <v>-0.175869681220182</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0.861</t>
+        </is>
+      </c>
+      <c r="F120">
+        <v>2020</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>exp2</t>
+        </is>
+      </c>
+      <c r="B121">
+        <v>0.0003566351803614978</v>
+      </c>
+      <c r="C121">
+        <v>0.001436460399527894</v>
+      </c>
+      <c r="D121">
+        <v>0.2482735900542119</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>0.805</t>
+        </is>
+      </c>
+      <c r="F121">
+        <v>2020</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
